--- a/Code_For_Figures_and_Analysis/Aflavus_BGCs_Analysis_Data/leporin/fai/Final_Results/Candidate_Homologous_Gene_Clusters.xlsx
+++ b/Code_For_Figures_and_Analysis/Aflavus_BGCs_Analysis_Data/leporin/fai/Final_Results/Candidate_Homologous_Gene_Clusters.xlsx
@@ -774,658 +774,658 @@
     <t>syntenic-correlation</t>
   </si>
   <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953785.1_ASM395378v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024667035.1_ASM2466703v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_025769805.1_ASM2576980v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024676265.1_ASM2467626v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_014117465.1_ASM1411746v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024676845.1_ASM2467684v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003711285.1_ASM371128v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953495.1_ASM395349v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024674975.1_ASM2467497v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013145925.1_ASM1314592v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_011420415.1_ASM1142041v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_001576655.1_ASM157665v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678145.1_ASM2467814v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_009176375.1_Asppari1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024676865.1_ASM2467686v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953505.1_ASM395350v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024676965.1_ASM2467696v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013435855.1_ASM1343585v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678445.1_ASM2467844v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678525.1_ASM2467852v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_008694435.1_ASM869443v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_008694435.1_ASM869443v1_fai-gene-cluster-2.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024668875.1_ASM2466887v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003967715.1_Afla_1.0_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678185.1_ASM2467818v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953625.1_ASM395362v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003711305.1_ASM371130v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678685.1_ASM2467868v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013436355.1_ASM1343635v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678845.1_ASM2467884v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_020091605.1_ASM2009160v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678785.1_ASM2467878v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_012896415.1_ASM1289641v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024676795.1_ASM2467679v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_001576725.1_ASM157672v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024667775.1_ASM2466777v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678745.1_ASM2467874v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_012897275.1_ASM1289727v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013436315.1_ASM1343631v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678505.1_ASM2467850v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003711315.1_ASM371131v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024677065.1_ASM2467706v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_026743845.1_ASM2674384v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953595.1_ASM395359v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953585.1_ASM395358v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024671585.1_ASM2467158v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_001576715.1_ASM157671v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678705.1_ASM2467870v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013436115.1_ASM1343611v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024674685.1_ASM2467468v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024672055.1_ASM2467205v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678645.1_ASM2467864v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_012897115.1_ASM1289711v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678825.1_ASM2467882v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013435725.1_ASM1343572v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_008694425.1_ASM869442v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024676985.1_ASM2467698v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013146015.1_ASM1314601v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953515.1_ASM395351v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_011420405.1_ASM1142040v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_025769605.1_ASM2576960v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024670455.1_ASM2467045v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_002217615.1_ASM221761v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024673995.1_ASM2467399v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678865.1_ASM2467886v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678325.1_ASM2467832v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953695.1_ASM395369v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003709025.1_ASM370902v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003967655.1_Afla_1.0_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003967655.1_Afla_1.0_fai-gene-cluster-2.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678565.1_ASM2467856v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_002456175.2_ASM245617v2_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678885.1_ASM2467888v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013145855.1_ASM1314585v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013435825.1_ASM1343582v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024668885.1_ASM2466888v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024677125.1_ASM2467712v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953705.1_ASM395370v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678765.1_ASM2467876v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678465.1_ASM2467846v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_011420435.1_ASM1142043v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024675385.1_ASM2467538v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024675085.1_ASM2467508v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678625.1_ASM2467862v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_012895975.1_ASM1289597v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678295.1_ASM2467829v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013436095.1_ASM1343609v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_026743815.1_ASM2674381v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678945.1_ASM2467894v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024677145.1_ASM2467714v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013436195.1_ASM1343619v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024667855.1_ASM2466785v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678425.1_ASM2467842v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024673185.1_ASM2467318v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013436235.1_ASM1343623v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_002443195.2_ASM244319v2_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_019880445.1_ASM1988044v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024668685.1_ASM2466868v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_025769845.1_ASM2576984v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678405.1_ASM2467840v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_002864195.1_ASM286419v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_025769725.1_ASM2576972v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_009856665.1_ASM985666v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013436445.1_ASM1343644v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_001576635.1_ASM157663v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013436085.1_ASM1343608v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024672685.1_ASM2467268v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024676875.1_ASM2467687v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678725.1_ASM2467872v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024675505.1_ASM2467550v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024676255.1_ASM2467625v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024665715.1_ASM2466571v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003967795.1_Afla_1.0_fai-gene-cluster-2.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003967795.1_Afla_1.0_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678485.1_ASM2467848v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024677025.1_ASM2467702v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024668675.1_ASM2466867v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013436215.1_ASM1343621v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_001576795.1_ASM157679v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024669875.1_ASM2466987v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678285.1_ASM2467828v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_014117485.1_ASM1411748v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_004329145.1_ASM432914v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678605.1_ASM2467860v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024676945.1_ASM2467694v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_025769655.1_ASM2576965v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_025765975.1_ASM2576597v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678205.1_ASM2467820v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953605.1_ASM395360v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024672335.1_ASM2467233v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013436105.1_ASM1343610v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_026743835.1_ASM2674383v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024666635.1_ASM2466663v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013435835.1_ASM1343583v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_012896275.1_ASM1289627v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_014784225.2_ASM1478422v2_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_000952835.1_ASM95283v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_000952835.1_ASM95283v1_fai-gene-cluster-2.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024668895.1_ASM2466889v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024667295.1_ASM2466729v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024670345.1_ASM2467034v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678165.1_ASM2467816v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003967775.1_Afla_1.0_fai-gene-cluster-2.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003967775.1_Afla_1.0_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003967635.1_Afla_1.0_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024676745.1_ASM2467674v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_025769695.1_ASM2576969v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_001576745.1_ASM157674v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013436165.1_ASM1343616v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024672365.1_ASM2467236v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_001576645.1_ASM157664v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003967695.1_Afla_1.0_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953715.1_ASM395371v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_008694405.1_ASM869440v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_011420395.1_ASM1142039v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013146035.1_ASM1314603v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024667655.1_ASM2466765v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953615.1_ASM395361v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_025769785.1_ASM2576978v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_002217635.1_ASM221763v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013435925.1_ASM1343592v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678925.1_ASM2467892v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013146025.1_ASM1314602v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024676915.1_ASM2467691v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013146165.1_ASM1314616v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953735.1_ASM395373v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024676895.1_ASM2467689v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013146155.1_ASM1314615v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024671085.1_ASM2467108v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953485.1_ASM395348v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953805.1_ASM395380v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_012896705.1_ASM1289670v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_002443215.2_ASM244321v2_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953525.1_ASM395352v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_018140885.1_ASM1814088v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_012896145.1_ASM1289614v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678665.1_ASM2467866v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953685.1_ASM395368v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953795.1_ASM395379v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_025769635.1_ASM2576963v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_009017415.1_ASM901741v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024674045.1_ASM2467404v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953865.1_ASM395386v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_023653635.1_ASM2365363v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678585.1_ASM2467858v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678385.1_ASM2467838v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678225.1_ASM2467822v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_027574695.1_SRRC_1582_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024671105.1_ASM2467110v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013436375.1_ASM1343637v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013436325.1_ASM1343632v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013436335.1_ASM1343633v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_008694415.1_ASM869441v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_012896995.1_ASM1289699v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013145865.1_ASM1314586v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_001695535.1_ASM169553v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_001695535.1_ASM169553v1_fai-gene-cluster-2.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024665695.1_ASM2466569v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003711355.1_ASM371135v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678805.1_ASM2467880v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678545.1_ASM2467854v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_012896555.1_ASM1289655v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024671095.1_ASM2467109v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024677005.1_ASM2467700v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678905.1_ASM2467890v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024666645.1_ASM2466664v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_012896875.1_ASM1289687v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013436455.1_ASM1343645v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_001576735.1_ASM157673v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003711385.1_ASM371138v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953825.1_ASM395382v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024673175.1_ASM2467317v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678345.1_ASM2467834v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678365.1_ASM2467836v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024667605.1_ASM2466760v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_004150275.1_TERIBR1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003711345.1_ASM371134v1_fai-gene-cluster-1.gbk</t>
-  </si>
-  <si>
-    <t>/home/salamzade/zol_development/showcase_examples/Aflavus_aflatoxin_and_leporinB/leporinB_redo/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_025769745.1_ASM2576974v1_fai-gene-cluster-1.gbk</t>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953785.1_ASM395378v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024667035.1_ASM2466703v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_025769805.1_ASM2576980v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024676265.1_ASM2467626v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_014117465.1_ASM1411746v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024676845.1_ASM2467684v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003711285.1_ASM371128v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953495.1_ASM395349v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024674975.1_ASM2467497v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013145925.1_ASM1314592v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_011420415.1_ASM1142041v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_001576655.1_ASM157665v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678145.1_ASM2467814v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_009176375.1_Asppari1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024676865.1_ASM2467686v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953505.1_ASM395350v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024676965.1_ASM2467696v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013435855.1_ASM1343585v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678445.1_ASM2467844v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678525.1_ASM2467852v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_008694435.1_ASM869443v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_008694435.1_ASM869443v1_fai-gene-cluster-2.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024668875.1_ASM2466887v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003967715.1_Afla_1.0_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678185.1_ASM2467818v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953625.1_ASM395362v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003711305.1_ASM371130v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678685.1_ASM2467868v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013436355.1_ASM1343635v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678845.1_ASM2467884v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_020091605.1_ASM2009160v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678785.1_ASM2467878v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_012896415.1_ASM1289641v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024676795.1_ASM2467679v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_001576725.1_ASM157672v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024667775.1_ASM2466777v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678745.1_ASM2467874v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_012897275.1_ASM1289727v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013436315.1_ASM1343631v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678505.1_ASM2467850v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003711315.1_ASM371131v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024677065.1_ASM2467706v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_026743845.1_ASM2674384v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953595.1_ASM395359v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953585.1_ASM395358v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024671585.1_ASM2467158v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_001576715.1_ASM157671v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678705.1_ASM2467870v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013436115.1_ASM1343611v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024674685.1_ASM2467468v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024672055.1_ASM2467205v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678645.1_ASM2467864v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_012897115.1_ASM1289711v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678825.1_ASM2467882v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013435725.1_ASM1343572v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_008694425.1_ASM869442v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024676985.1_ASM2467698v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013146015.1_ASM1314601v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953515.1_ASM395351v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_011420405.1_ASM1142040v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_025769605.1_ASM2576960v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024670455.1_ASM2467045v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_002217615.1_ASM221761v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024673995.1_ASM2467399v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678865.1_ASM2467886v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678325.1_ASM2467832v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953695.1_ASM395369v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003709025.1_ASM370902v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003967655.1_Afla_1.0_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003967655.1_Afla_1.0_fai-gene-cluster-2.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678565.1_ASM2467856v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_002456175.2_ASM245617v2_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678885.1_ASM2467888v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013145855.1_ASM1314585v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013435825.1_ASM1343582v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024668885.1_ASM2466888v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024677125.1_ASM2467712v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953705.1_ASM395370v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678765.1_ASM2467876v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678465.1_ASM2467846v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_011420435.1_ASM1142043v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024675385.1_ASM2467538v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024675085.1_ASM2467508v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678625.1_ASM2467862v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_012895975.1_ASM1289597v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678295.1_ASM2467829v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013436095.1_ASM1343609v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_026743815.1_ASM2674381v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678945.1_ASM2467894v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024677145.1_ASM2467714v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013436195.1_ASM1343619v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024667855.1_ASM2466785v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678425.1_ASM2467842v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024673185.1_ASM2467318v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013436235.1_ASM1343623v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_002443195.2_ASM244319v2_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_019880445.1_ASM1988044v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024668685.1_ASM2466868v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_025769845.1_ASM2576984v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678405.1_ASM2467840v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_002864195.1_ASM286419v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_025769725.1_ASM2576972v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_009856665.1_ASM985666v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013436445.1_ASM1343644v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_001576635.1_ASM157663v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013436085.1_ASM1343608v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024672685.1_ASM2467268v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024676875.1_ASM2467687v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678725.1_ASM2467872v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024675505.1_ASM2467550v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024676255.1_ASM2467625v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024665715.1_ASM2466571v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003967795.1_Afla_1.0_fai-gene-cluster-2.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003967795.1_Afla_1.0_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678485.1_ASM2467848v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024677025.1_ASM2467702v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024668675.1_ASM2466867v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013436215.1_ASM1343621v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_001576795.1_ASM157679v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024669875.1_ASM2466987v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678285.1_ASM2467828v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_014117485.1_ASM1411748v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_004329145.1_ASM432914v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678605.1_ASM2467860v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024676945.1_ASM2467694v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_025769655.1_ASM2576965v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_025765975.1_ASM2576597v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678205.1_ASM2467820v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953605.1_ASM395360v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024672335.1_ASM2467233v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013436105.1_ASM1343610v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_026743835.1_ASM2674383v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024666635.1_ASM2466663v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013435835.1_ASM1343583v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_012896275.1_ASM1289627v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_014784225.2_ASM1478422v2_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_000952835.1_ASM95283v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_000952835.1_ASM95283v1_fai-gene-cluster-2.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024668895.1_ASM2466889v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024667295.1_ASM2466729v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024670345.1_ASM2467034v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678165.1_ASM2467816v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003967775.1_Afla_1.0_fai-gene-cluster-2.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003967775.1_Afla_1.0_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003967635.1_Afla_1.0_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024676745.1_ASM2467674v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_025769695.1_ASM2576969v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_001576745.1_ASM157674v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013436165.1_ASM1343616v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024672365.1_ASM2467236v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_001576645.1_ASM157664v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003967695.1_Afla_1.0_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953715.1_ASM395371v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_008694405.1_ASM869440v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_011420395.1_ASM1142039v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013146035.1_ASM1314603v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024667655.1_ASM2466765v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953615.1_ASM395361v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_025769785.1_ASM2576978v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_002217635.1_ASM221763v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013435925.1_ASM1343592v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678925.1_ASM2467892v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013146025.1_ASM1314602v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024676915.1_ASM2467691v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013146165.1_ASM1314616v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953735.1_ASM395373v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024676895.1_ASM2467689v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013146155.1_ASM1314615v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024671085.1_ASM2467108v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953485.1_ASM395348v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953805.1_ASM395380v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_012896705.1_ASM1289670v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_002443215.2_ASM244321v2_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953525.1_ASM395352v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_018140885.1_ASM1814088v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_012896145.1_ASM1289614v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678665.1_ASM2467866v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953685.1_ASM395368v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953795.1_ASM395379v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_025769635.1_ASM2576963v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_009017415.1_ASM901741v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024674045.1_ASM2467404v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953865.1_ASM395386v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_023653635.1_ASM2365363v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678585.1_ASM2467858v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678385.1_ASM2467838v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678225.1_ASM2467822v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_027574695.1_SRRC_1582_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024671105.1_ASM2467110v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013436375.1_ASM1343637v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013436325.1_ASM1343632v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013436335.1_ASM1343633v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_008694415.1_ASM869441v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_012896995.1_ASM1289699v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013145865.1_ASM1314586v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_001695535.1_ASM169553v1_fai-gene-cluster-2.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_001695535.1_ASM169553v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024665695.1_ASM2466569v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003711355.1_ASM371135v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678805.1_ASM2467880v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678545.1_ASM2467854v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_012896555.1_ASM1289655v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024671095.1_ASM2467109v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024677005.1_ASM2467700v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678905.1_ASM2467890v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024666645.1_ASM2466664v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_012896875.1_ASM1289687v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_013436455.1_ASM1343645v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_001576735.1_ASM157673v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003711385.1_ASM371138v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003953825.1_ASM395382v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024673175.1_ASM2467317v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678345.1_ASM2467834v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024678365.1_ASM2467836v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_024667605.1_ASM2466760v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_004150275.1_TERIBR1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_003711345.1_ASM371134v1_fai-gene-cluster-1.gbk</t>
+  </si>
+  <si>
+    <t>/home/salamzade/zol_development/showcase_examples_redo/Aflavus_aflatoxin_and_leporinB/leporin/fai_Results/GC_Segment_Processing/GeneCluster_Genbanks/GCA_025769745.1_ASM2576974v1_fai-gene-cluster-1.gbk</t>
   </si>
   <si>
     <t>0,1,0,0,1,0,1,1,1,0,0</t>
@@ -41027,16 +41027,16 @@
         <v>447</v>
       </c>
       <c r="C197">
-        <v>10793</v>
+        <v>4055</v>
       </c>
       <c r="D197">
-        <v>96.36</v>
+        <v>98.8</v>
       </c>
       <c r="E197">
-        <v>1.027</v>
+        <v>0.968</v>
       </c>
       <c r="F197">
-        <v>0.4545454545454545</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -41045,49 +41045,49 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="J197">
-        <v>99.7</v>
+        <v>0</v>
       </c>
       <c r="K197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L197">
-        <v>0</v>
+        <v>97.8</v>
       </c>
       <c r="M197">
-        <v>0</v>
+        <v>0.979</v>
       </c>
       <c r="N197">
+        <v>0</v>
+      </c>
+      <c r="O197">
+        <v>0</v>
+      </c>
+      <c r="P197">
+        <v>0</v>
+      </c>
+      <c r="Q197">
+        <v>0</v>
+      </c>
+      <c r="R197">
         <v>99.8</v>
       </c>
-      <c r="O197">
-        <v>1.248</v>
-      </c>
-      <c r="P197">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="Q197">
-        <v>0.996</v>
-      </c>
-      <c r="R197">
-        <v>0</v>
-      </c>
       <c r="S197">
-        <v>0</v>
+        <v>0.897</v>
       </c>
       <c r="T197">
-        <v>84.8</v>
+        <v>0</v>
       </c>
       <c r="U197">
-        <v>0.899</v>
+        <v>0</v>
       </c>
       <c r="V197">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="W197">
-        <v>0</v>
+        <v>0.997</v>
       </c>
       <c r="X197">
         <v>0</v>
@@ -41096,10 +41096,10 @@
         <v>0</v>
       </c>
       <c r="Z197">
-        <v>0</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AA197">
-        <v>0</v>
+        <v>0.997</v>
       </c>
       <c r="AB197">
         <v>0</v>
@@ -41108,10 +41108,10 @@
         <v>0</v>
       </c>
       <c r="AD197">
-        <v>99.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="AE197">
-        <v>0.991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:31">
@@ -41122,16 +41122,16 @@
         <v>448</v>
       </c>
       <c r="C198">
-        <v>4055</v>
+        <v>10793</v>
       </c>
       <c r="D198">
-        <v>98.8</v>
+        <v>96.36</v>
       </c>
       <c r="E198">
-        <v>0.968</v>
+        <v>1.027</v>
       </c>
       <c r="F198">
-        <v>0.3636363636363636</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -41140,49 +41140,49 @@
         <v>0</v>
       </c>
       <c r="I198" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J198">
-        <v>0</v>
+        <v>99.7</v>
       </c>
       <c r="K198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L198">
-        <v>97.8</v>
+        <v>0</v>
       </c>
       <c r="M198">
-        <v>0.979</v>
+        <v>0</v>
       </c>
       <c r="N198">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="O198">
-        <v>0</v>
+        <v>1.248</v>
       </c>
       <c r="P198">
-        <v>0</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="Q198">
-        <v>0</v>
+        <v>0.996</v>
       </c>
       <c r="R198">
-        <v>99.8</v>
+        <v>0</v>
       </c>
       <c r="S198">
-        <v>0.897</v>
+        <v>0</v>
       </c>
       <c r="T198">
-        <v>0</v>
+        <v>84.8</v>
       </c>
       <c r="U198">
-        <v>0</v>
+        <v>0.899</v>
       </c>
       <c r="V198">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="W198">
-        <v>0.997</v>
+        <v>0</v>
       </c>
       <c r="X198">
         <v>0</v>
@@ -41191,10 +41191,10 @@
         <v>0</v>
       </c>
       <c r="Z198">
-        <v>98.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA198">
-        <v>0.997</v>
+        <v>0</v>
       </c>
       <c r="AB198">
         <v>0</v>
@@ -41203,10 +41203,10 @@
         <v>0</v>
       </c>
       <c r="AD198">
-        <v>0</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AE198">
-        <v>0</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="199" spans="1:31">
